--- a/EXCEL_OUPUT/JFE Mineral (Australia) Pty Ltd - Financials - KPMG Signed.xlsx
+++ b/EXCEL_OUPUT/JFE Mineral (Australia) Pty Ltd - Financials - KPMG Signed.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="1653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1667">
   <si>
     <t>to</t>
   </si>
@@ -2623,7 +2623,7 @@
     <t>term inflation.</t>
   </si>
   <si>
-    <t>respect balance and with A rehabilitation current to the and is provision non-current for restoration disclosed, with the current portion representing the estimated rehabilitation and restoration work to be undertaken in the coming</t>
+    <t>the the balance with A estimated current current rehabilitation and and non-current restoration respect to the provision for restoration and rehabilitation is disclosed, with portion representing work to be undertaken in the coming</t>
   </si>
   <si>
     <t>the current</t>
@@ -3589,7 +3589,7 @@
     <t>to receive the contractual cash flows in</t>
   </si>
   <si>
-    <t>compensation for early termination of</t>
+    <t>compensation of for early termination</t>
   </si>
   <si>
     <t>represents the contractual</t>
@@ -3667,7 +3667,7 @@
     <t>transferred assets. In</t>
   </si>
   <si>
-    <t>the contract. Additionally, for of a</t>
+    <t>of the contract. Additionally, for a</t>
   </si>
   <si>
     <t>feature that permits or requires</t>
@@ -4063,7 +4063,7 @@
     <t>and the liabilities</t>
   </si>
   <si>
-    <t>The difference between the above items and the fair value of the consideration (including the fair value of existing investment in the acquiree) is goodwill or a discount on acquisition.</t>
+    <t>of The difference between the above items and the fair value of the consideration (including the fair value existing investment in the acquiree) is goodwill or a discount on acquisition.</t>
   </si>
   <si>
     <t>Transactions eliminated on consolidation</t>
@@ -4357,7 +4357,7 @@
     <t>acquisition</t>
   </si>
   <si>
-    <t>any pre- of</t>
+    <t>of any pre-</t>
   </si>
   <si>
     <t>intra-group</t>
@@ -4765,60 +4765,66 @@
     <t>concern, which</t>
   </si>
   <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash receipts from customers</t>
+  </si>
+  <si>
+    <t>Cash paid to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Cash generated from operating activities</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Income taxes received</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property, plant and equipment</t>
+  </si>
+  <si>
     <t>Acquisition of property, plant and equipment</t>
   </si>
   <si>
+    <t>Advance of loans to related parties</t>
+  </si>
+  <si>
+    <t>Net cash used in investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Payment of finance lease liabilities</t>
+  </si>
+  <si>
+    <t>Net cash from financing activities</t>
+  </si>
+  <si>
+    <t>Net increase/decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at beginning of year</t>
+  </si>
+  <si>
     <t>Cash and cash equivalents at end of year</t>
   </si>
   <si>
-    <t>Cash receipts from customers</t>
-  </si>
-  <si>
-    <t>Cash paid to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Cash generated from operating activities</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>Income taxes received</t>
-  </si>
-  <si>
-    <t>Net cash from operating activities</t>
-  </si>
-  <si>
-    <t>Proceeds from sale of property, plant and equipment</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>Advance of loans to related parties</t>
-  </si>
-  <si>
-    <t>Net cash used in investing activities</t>
-  </si>
-  <si>
-    <t>Payment of finance lease liabilities</t>
-  </si>
-  <si>
-    <t>Net cash from financing activities</t>
-  </si>
-  <si>
-    <t>Net increase/decrease) in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at beginning of year</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
     <t>17111564</t>
   </si>
   <si>
@@ -4837,6 +4843,9 @@
     <t>6165237</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>(3,846,597)</t>
   </si>
   <si>
@@ -4844,6 +4853,39 @@
   </si>
   <si>
     <t>(6,731)</t>
+  </si>
+  <si>
+    <t>2312026</t>
+  </si>
+  <si>
+    <t>6475463</t>
+  </si>
+  <si>
+    <t>(6,386,957)</t>
+  </si>
+  <si>
+    <t>88506</t>
+  </si>
+  <si>
+    <t>29306</t>
+  </si>
+  <si>
+    <t>(2,475,485)</t>
+  </si>
+  <si>
+    <t>125812</t>
+  </si>
+  <si>
+    <t>(2,320,367)</t>
+  </si>
+  <si>
+    <t>12566</t>
+  </si>
+  <si>
+    <t>(2,219,295)</t>
+  </si>
+  <si>
+    <t>6294649</t>
   </si>
   <si>
     <t>Balance at 1 January 2021</t>
@@ -16688,13 +16730,13 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -16704,16 +16746,19 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>149</v>
-      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="C2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -16723,136 +16768,193 @@
       <c r="C3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>1571</v>
       </c>
-      <c r="C5" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>1572</v>
       </c>
-      <c r="C6" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>1573</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>1574</v>
       </c>
       <c r="C8" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>1575</v>
       </c>
-      <c r="C9" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>1576</v>
       </c>
-      <c r="C10" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>1577</v>
       </c>
-      <c r="C11" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>1578</v>
       </c>
       <c r="C13" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>1595</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1569</v>
+        <v>1579</v>
       </c>
       <c r="B14" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="C14" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+      <c r="D15" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>1581</v>
       </c>
       <c r="C16" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>1582</v>
       </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1583</v>
+      </c>
       <c r="C18" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>1583</v>
+        <v>1598</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1584</v>
       </c>
       <c r="C19" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>1584</v>
+        <v>1598</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1585</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
-        <v>1585</v>
+        <v>1599</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1586</v>
       </c>
       <c r="C21" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="B22" t="s">
-        <v>1586</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="D22" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -16893,7 +16995,7 @@
         <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>1600</v>
+        <v>1614</v>
       </c>
       <c r="D2" t="s">
         <v>309</v>
@@ -16904,21 +17006,21 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1596</v>
+        <v>1610</v>
       </c>
       <c r="B3" t="s">
         <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="E3" t="s">
-        <v>1605</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1597</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16926,35 +17028,35 @@
         <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="E5" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1597</v>
+        <v>1611</v>
       </c>
       <c r="D6" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="E6" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1598</v>
+        <v>1612</v>
       </c>
       <c r="B7" t="s">
         <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="E7" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -16965,10 +17067,10 @@
         <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="E8" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -16978,7 +17080,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
       <c r="D10" t="s">
         <v>586</v>
@@ -17006,10 +17108,10 @@
         <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>1604</v>
+        <v>1618</v>
       </c>
       <c r="E12" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>
@@ -17113,10 +17215,10 @@
         <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="D8" t="s">
-        <v>1624</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17124,18 +17226,18 @@
         <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>1617</v>
+        <v>1631</v>
       </c>
       <c r="D9" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1608</v>
+        <v>1622</v>
       </c>
       <c r="B10" t="s">
-        <v>1612</v>
+        <v>1626</v>
       </c>
       <c r="C10" t="s">
         <v>526</v>
@@ -17149,7 +17251,7 @@
         <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="C11" t="s">
         <v>478</v>
@@ -17185,10 +17287,10 @@
         <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
       <c r="D14" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -17196,10 +17298,10 @@
         <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
       <c r="D15" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -17226,7 +17328,7 @@
         <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>1613</v>
+        <v>1627</v>
       </c>
       <c r="C18" t="s">
         <v>401</v>
@@ -17240,7 +17342,7 @@
         <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>1614</v>
+        <v>1628</v>
       </c>
       <c r="C19" t="s">
         <v>402</v>
@@ -17251,10 +17353,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1609</v>
+        <v>1623</v>
       </c>
       <c r="C20" t="s">
-        <v>1620</v>
+        <v>1634</v>
       </c>
       <c r="D20" t="s">
         <v>242</v>
@@ -17265,10 +17367,10 @@
         <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="D21" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -17276,7 +17378,7 @@
         <v>202</v>
       </c>
       <c r="B22" t="s">
-        <v>1613</v>
+        <v>1627</v>
       </c>
       <c r="C22" t="s">
         <v>226</v>
@@ -17287,7 +17389,7 @@
         <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>1614</v>
+        <v>1628</v>
       </c>
       <c r="C23" t="s">
         <v>403</v>
@@ -17301,7 +17403,7 @@
         <v>206</v>
       </c>
       <c r="C24" t="s">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="D24" t="s">
         <v>415</v>
@@ -17312,26 +17414,26 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
       <c r="D25" t="s">
-        <v>1629</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1610</v>
+        <v>1624</v>
       </c>
       <c r="C26" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
       <c r="D26" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1611</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -17339,7 +17441,7 @@
         <v>308</v>
       </c>
       <c r="B28" t="s">
-        <v>1615</v>
+        <v>1629</v>
       </c>
       <c r="C28" t="s">
         <v>316</v>
@@ -17353,10 +17455,10 @@
         <v>309</v>
       </c>
       <c r="C29" t="s">
-        <v>1604</v>
+        <v>1618</v>
       </c>
       <c r="D29" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -17364,10 +17466,10 @@
         <v>310</v>
       </c>
       <c r="C30" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
       <c r="D30" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
     </row>
   </sheetData>
@@ -17421,7 +17523,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1630</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17440,24 +17542,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1631</v>
+        <v>1645</v>
       </c>
       <c r="C6" t="s">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="D6" t="s">
-        <v>1647</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1632</v>
+        <v>1646</v>
       </c>
       <c r="C7" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="D7" t="s">
-        <v>1648</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -17476,13 +17578,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1633</v>
+        <v>1647</v>
       </c>
       <c r="C9" t="s">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="D9" t="s">
-        <v>1649</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -17493,21 +17595,21 @@
         <v>598</v>
       </c>
       <c r="C10" t="s">
-        <v>1644</v>
+        <v>1658</v>
       </c>
       <c r="D10" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="C11" t="s">
-        <v>1645</v>
+        <v>1659</v>
       </c>
       <c r="D11" t="s">
-        <v>1651</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -17539,27 +17641,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="C15" t="s">
         <v>587</v>
       </c>
       <c r="D15" t="s">
-        <v>1651</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="B16" t="s">
-        <v>1612</v>
+        <v>1626</v>
       </c>
       <c r="C16" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="D16" t="s">
-        <v>1652</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17570,34 +17672,34 @@
         <v>586</v>
       </c>
       <c r="D17" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="C18" t="s">
         <v>586</v>
       </c>
       <c r="D18" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="C20" t="s">
         <v>586</v>
       </c>
       <c r="D20" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -17608,34 +17710,34 @@
         <v>586</v>
       </c>
       <c r="D21" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="C23" t="s">
         <v>586</v>
       </c>
       <c r="D23" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="C24" t="s">
         <v>586</v>
       </c>
       <c r="D24" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
